--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="153">
   <si>
     <t>Property</t>
   </si>
@@ -356,10 +356,10 @@
     <t>valueCoding</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicalFeeScoreType_VS</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicalFeeScoreType_VS</t>
   </si>
   <si>
     <t>Extension.value[x].id</t>
@@ -397,9 +397,6 @@
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.392.100495.20.3.22</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -836,7 +833,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.3046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1808,49 +1805,49 @@
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE10" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="R10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -1865,12 +1862,12 @@
         <v>108</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1896,13 +1893,13 @@
         <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -1952,7 +1949,7 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -1967,12 +1964,12 @@
         <v>108</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1995,17 +1992,17 @@
         <v>119</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>75</v>
@@ -2054,7 +2051,7 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2069,12 +2066,12 @@
         <v>108</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2100,14 +2097,14 @@
         <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>75</v>
@@ -2156,7 +2153,7 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -2171,12 +2168,12 @@
         <v>108</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2199,19 +2196,19 @@
         <v>119</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>75</v>
@@ -2260,7 +2257,7 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -2275,7 +2272,7 @@
         <v>108</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
